--- a/WebAPP/wwwroot/Form/formNhapUser.xlsx
+++ b/WebAPP/wwwroot/Form/formNhapUser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smtng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223988BA-80DB-46F0-8576-85AB011C023C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EC1DE9-5D14-4DAC-ABF1-08A013AC07AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62B9673F-6EC5-47DD-9605-FCC591F5EB62}"/>
   </bookViews>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34701C78-0367-40EF-986A-4944EBB190BE}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +446,7 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
